--- a/use.xlsx
+++ b/use.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="656">
   <si>
     <t>code</t>
   </si>
@@ -28,34 +28,142 @@
     <t>amount</t>
   </si>
   <si>
-    <t>01.3.01.01-0010</t>
-  </si>
-  <si>
-    <t>Бензин-растворитель</t>
+    <t>01.1.02.08-0001</t>
+  </si>
+  <si>
+    <t>Прокладки из паронита ПМБ, толщина 1 мм, диаметр 50 мм</t>
+  </si>
+  <si>
+    <t>1000 шт</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>01.1.02.08-0002</t>
+  </si>
+  <si>
+    <t>Прокладки из паронита ПМБ, толщина 1 мм, диаметр 100 мм</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>01.3.01.01-0001</t>
+  </si>
+  <si>
+    <t>Бензин авиационный Б-70...</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>01.3.01.02-0002</t>
+  </si>
+  <si>
+    <t>Вазелин технический</t>
   </si>
   <si>
     <t>кг</t>
   </si>
   <si>
-    <t>4.5259766</t>
-  </si>
-  <si>
-    <t>01.3.01.06-0038</t>
-  </si>
-  <si>
-    <t>Смазка защитная электросетевая</t>
-  </si>
-  <si>
-    <t>20.6632944</t>
-  </si>
-  <si>
-    <t>01.3.01.06-0051</t>
-  </si>
-  <si>
-    <t>Смазка солидол жировой Ж</t>
-  </si>
-  <si>
-    <t>3.99</t>
+    <t>1.226</t>
+  </si>
+  <si>
+    <t>01.3.01.05-0009</t>
+  </si>
+  <si>
+    <t>Парафин нефтяной твердый Т-1...</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>01.3.01.07-0009</t>
+  </si>
+  <si>
+    <t>Спирт этиловый ректификованный технический, сорт I</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>01.3.02.08-0001</t>
+  </si>
+  <si>
+    <t>Кислород газообразный технический</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>39.245</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>01.3.02.09-0022</t>
+  </si>
+  <si>
+    <t>Пропан-бутан смесь техническая</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>Пропан-бутан смесь техническая...</t>
+  </si>
+  <si>
+    <t>68.9567</t>
+  </si>
+  <si>
+    <t>01.3.03.07-0001</t>
+  </si>
+  <si>
+    <t>Кислота уксусная</t>
+  </si>
+  <si>
+    <t>0.0588</t>
+  </si>
+  <si>
+    <t>01.3.04.02-0004</t>
+  </si>
+  <si>
+    <t>Масло дизельное моторное М-10ДМ</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>01.3.05.17-0002</t>
+  </si>
+  <si>
+    <t>Канифоль сосновая</t>
+  </si>
+  <si>
+    <t>0.0266</t>
+  </si>
+  <si>
+    <t>01.7.02.07-0011</t>
+  </si>
+  <si>
+    <t>Прессшпан листовой, марка А</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>01.7.02.09-0002</t>
+  </si>
+  <si>
+    <t>Шпагат бумажный</t>
+  </si>
+  <si>
+    <t>0.245</t>
   </si>
   <si>
     <t>01.7.03.01-0001</t>
@@ -64,46 +172,388 @@
     <t>Вода</t>
   </si>
   <si>
-    <t>м3</t>
-  </si>
-  <si>
-    <t>13.3577</t>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>01.7.03.01-0002</t>
+  </si>
+  <si>
+    <t>Вода водопроводная</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>01.7.03.04-0001</t>
+  </si>
+  <si>
+    <t>Электроэнергия</t>
+  </si>
+  <si>
+    <t>кВт-ч</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>01.7.06.03-0004</t>
+  </si>
+  <si>
+    <t>Лента поливинилхлоридная техническая с липким слоем, толщина 0,4 мм</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>01.7.06.05-0041</t>
+  </si>
+  <si>
+    <t>Лента изоляционная прорезиненная односторонняя, ширина 20 мм, толщина 0,25-0,35 мм...</t>
+  </si>
+  <si>
+    <t>4.622</t>
+  </si>
+  <si>
+    <t>01.7.06.05-0042</t>
+  </si>
+  <si>
+    <t>Лента липкая изоляционная на поликасиновом компаунде, ширина 20-30 мм, толщина от 0,14 до 0,19 мм</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>01.7.06.07-0002</t>
+  </si>
+  <si>
+    <t>Лента монтажная, тип ЛМ-5...</t>
+  </si>
+  <si>
+    <t>10 м</t>
+  </si>
+  <si>
+    <t>31.2705</t>
+  </si>
+  <si>
+    <t>01.7.06.11-0021</t>
+  </si>
+  <si>
+    <t>Лента ФУМ...</t>
+  </si>
+  <si>
+    <t>0.0553</t>
+  </si>
+  <si>
+    <t>01.7.06.12-0008</t>
+  </si>
+  <si>
+    <t>Лента ПВХ</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>01.7.07.24-0006</t>
+  </si>
+  <si>
+    <t>Пленка радиографическая листовая, размер 230х300 мм</t>
+  </si>
+  <si>
+    <t>м2</t>
+  </si>
+  <si>
+    <t>1.952</t>
+  </si>
+  <si>
+    <t>01.7.07.24-0041</t>
+  </si>
+  <si>
+    <t>Фотопроявитель</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>01.7.07.24-0051</t>
+  </si>
+  <si>
+    <t>Фотофиксаж</t>
+  </si>
+  <si>
+    <t>01.7.07.29-0241</t>
+  </si>
+  <si>
+    <t>Хомутик</t>
+  </si>
+  <si>
+    <t>10 шт</t>
+  </si>
+  <si>
+    <t>2.4851</t>
+  </si>
+  <si>
+    <t>01.7.08.04-0003</t>
+  </si>
+  <si>
+    <t>Мел природный молотый</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>01.7.11.06-0028</t>
+  </si>
+  <si>
+    <t>Флюс ФКДТ</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0032</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э42, диаметр 4 мм</t>
+  </si>
+  <si>
+    <t>0.0679</t>
   </si>
   <si>
     <t>01.7.11.07-0034</t>
   </si>
   <si>
-    <t>Электроды сварочные Э42А, диаметр 4 мм</t>
-  </si>
-  <si>
-    <t>9.9666</t>
-  </si>
-  <si>
-    <t>01.7.15.07-0004</t>
-  </si>
-  <si>
-    <t>Дюбели металлические, диаметр 60 мм, длина 20-25 мм</t>
-  </si>
-  <si>
-    <t>27.71</t>
+    <t>Электроды сварочные Э42А, диаметр 4 мм...</t>
+  </si>
+  <si>
+    <t>47.5222</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0036</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э46, диаметр 4 мм</t>
+  </si>
+  <si>
+    <t>11.8409</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0044</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э42, диаметр 5 мм</t>
+  </si>
+  <si>
+    <t>0.0369</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0045</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э42А, диаметр 5 мм</t>
+  </si>
+  <si>
+    <t>0.0222</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0054</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э42, диаметр 6 мм</t>
+  </si>
+  <si>
+    <t>0.0648</t>
+  </si>
+  <si>
+    <t>01.7.11.07-0064</t>
+  </si>
+  <si>
+    <t>Электроды сварочные Э42, диаметр 8 мм</t>
+  </si>
+  <si>
+    <t>0.0062</t>
+  </si>
+  <si>
+    <t>01.7.15.03-0031</t>
+  </si>
+  <si>
+    <t>Болты с гайками и шайбами оцинкованные, диаметр 6 мм</t>
+  </si>
+  <si>
+    <t>0.1068</t>
+  </si>
+  <si>
+    <t>01.7.15.03-0033</t>
+  </si>
+  <si>
+    <t>Болты с гайками и шайбами оцинкованные, диаметр 10 мм</t>
+  </si>
+  <si>
+    <t>1.752</t>
+  </si>
+  <si>
+    <t>01.7.15.03-0042</t>
+  </si>
+  <si>
+    <t>Болты с гайками и шайбами строительные...</t>
+  </si>
+  <si>
+    <t>160.1025</t>
+  </si>
+  <si>
+    <t>01.7.15.04-0011</t>
+  </si>
+  <si>
+    <t>Винты с полукруглой головкой, длина 50 мм...</t>
+  </si>
+  <si>
+    <t>0.0174</t>
+  </si>
+  <si>
+    <t>01.7.15.06-0111</t>
+  </si>
+  <si>
+    <t>Гвозди строительные</t>
+  </si>
+  <si>
+    <t>0.0003</t>
+  </si>
+  <si>
+    <t>01.7.15.07-0012</t>
+  </si>
+  <si>
+    <t>Дюбели пластмассовые с шурупами, размер 12х70 мм</t>
+  </si>
+  <si>
+    <t>100 шт</t>
+  </si>
+  <si>
+    <t>0.41</t>
   </si>
   <si>
     <t>01.7.15.07-0014</t>
   </si>
   <si>
-    <t>Дюбели распорные полипропиленовые</t>
-  </si>
-  <si>
-    <t>100 шт</t>
-  </si>
-  <si>
-    <t>0.11832</t>
+    <t>Дюбели распорные полипропиленовые...</t>
+  </si>
+  <si>
+    <t>5.3639</t>
+  </si>
+  <si>
+    <t>01.7.15.07-0022</t>
+  </si>
+  <si>
+    <t>Дюбели распорные полиэтиленовые, размер 6х40 мм...</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>01.7.15.07-0031</t>
+  </si>
+  <si>
+    <t>Дюбели распорные с гайкой</t>
+  </si>
+  <si>
+    <t>0.3049</t>
+  </si>
+  <si>
+    <t>01.7.15.07-0152</t>
+  </si>
+  <si>
+    <t>Дюбели с шурупом, размер 6х35 мм</t>
+  </si>
+  <si>
+    <t>2.059</t>
   </si>
   <si>
     <t>01.7.15.14-0043</t>
   </si>
   <si>
-    <t>Шурупы самонарезающий прокалывающий, для крепления металлических профилей или листовых деталей 3,5/11 мм</t>
+    <t>Шурупы самонарезающий прокалывающий, для крепления металлических профилей или листовых деталей 3,5/11 мм...</t>
+  </si>
+  <si>
+    <t>4.4959</t>
+  </si>
+  <si>
+    <t>01.7.15.14-0165</t>
+  </si>
+  <si>
+    <t>Шурупы с полукруглой головкой 4х40 мм...</t>
+  </si>
+  <si>
+    <t>0.0099</t>
+  </si>
+  <si>
+    <t>01.7.15.14-0168</t>
+  </si>
+  <si>
+    <t>Шурупы с полукруглой головкой 5х70 мм</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>01.7.19.04-0002</t>
+  </si>
+  <si>
+    <t>Пластина резиновая рулонная вулканизированная</t>
+  </si>
+  <si>
+    <t>01.7.19.04-0031</t>
+  </si>
+  <si>
+    <t>Прокладки резиновые (пластина техническая прессованная)</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>01.7.19.08-0012</t>
+  </si>
+  <si>
+    <t>Рукав резиновый вентиляционный</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>01.7.20.03-0012</t>
+  </si>
+  <si>
+    <t>Мешковина джутовая</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>01.7.20.04-0003</t>
+  </si>
+  <si>
+    <t>Нитки суровые</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>01.7.20.04-0004</t>
+  </si>
+  <si>
+    <t>Нитки хлопчатобумажные швейные</t>
+  </si>
+  <si>
+    <t>0.0104</t>
+  </si>
+  <si>
+    <t>01.7.20.04-0005</t>
+  </si>
+  <si>
+    <t>Нитки швейные</t>
+  </si>
+  <si>
+    <t>0.123</t>
   </si>
   <si>
     <t>01.7.20.08-0051</t>
@@ -112,7 +562,79 @@
     <t>Ветошь</t>
   </si>
   <si>
-    <t>6.4316472</t>
+    <t>635.66</t>
+  </si>
+  <si>
+    <t>01.7.20.08-0071</t>
+  </si>
+  <si>
+    <t>Канат пеньковый пропитанный</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>01.7.20.08-0122</t>
+  </si>
+  <si>
+    <t>Салфетки хлопчатобумажные</t>
+  </si>
+  <si>
+    <t>6.54</t>
+  </si>
+  <si>
+    <t>02.2.05.04-1777</t>
+  </si>
+  <si>
+    <t>Щебень М 800, фракция 20-40 мм, группа 2</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>03.1.01.01-0002</t>
+  </si>
+  <si>
+    <t>Гипс строительный Г-3</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>04.3.01.09-0016</t>
+  </si>
+  <si>
+    <t>Раствор готовый кладочный, цементный, М200</t>
+  </si>
+  <si>
+    <t>0.0008</t>
+  </si>
+  <si>
+    <t>07.2.07.12-0020</t>
+  </si>
+  <si>
+    <t>Элементы конструктивные зданий и сооружений с преобладанием горячекатаных профилей, средняя масса сборочной единицы от 0,1 до 0,5 т</t>
+  </si>
+  <si>
+    <t>0.0247</t>
+  </si>
+  <si>
+    <t>08.2.02.11-0007</t>
+  </si>
+  <si>
+    <t>Канат двойной свивки ТК, конструкции 6х19(1+6+12)+1 о.с., оцинкованный, из проволок марки В, маркировочная группа 1770 н/мм2, диаметр 5,5 мм</t>
+  </si>
+  <si>
+    <t>0.7376</t>
+  </si>
+  <si>
+    <t>08.3.03.06-0002</t>
+  </si>
+  <si>
+    <t>Проволока горячекатаная в мотках, диаметр 6,3-6,5 мм</t>
+  </si>
+  <si>
+    <t>0.001</t>
   </si>
   <si>
     <t>08.3.05.02-0101</t>
@@ -121,28 +643,145 @@
     <t>Прокат толстолистовой горячекатаный в листах, марка стали ВСт3пс5, толщина 4-6 мм</t>
   </si>
   <si>
-    <t>т</t>
-  </si>
-  <si>
-    <t>0.0008</t>
-  </si>
-  <si>
-    <t>10.1.02.03-0002</t>
-  </si>
-  <si>
-    <t>Проволока алюминиевая, диаметр 3 мм</t>
-  </si>
-  <si>
-    <t>0.1508659</t>
-  </si>
-  <si>
-    <t>14.4.02.04-0015</t>
-  </si>
-  <si>
-    <t>Краска масляная для внутренних работ МА-015, черная густотертая</t>
-  </si>
-  <si>
-    <t>0.0408</t>
+    <t>0.0044</t>
+  </si>
+  <si>
+    <t>08.3.07.01-0076</t>
+  </si>
+  <si>
+    <t>Прокат полосовой, горячекатаный, марка стали Ст3сп, ширина 50-200 мм, толщина 4-5 мм...</t>
+  </si>
+  <si>
+    <t>0.4141</t>
+  </si>
+  <si>
+    <t>08.3.11.01-0091</t>
+  </si>
+  <si>
+    <t>Швеллеры № 40, марка стали Ст0</t>
+  </si>
+  <si>
+    <t>0.0765</t>
+  </si>
+  <si>
+    <t>10.2.02.08-0001</t>
+  </si>
+  <si>
+    <t>Проволока медная, круглая, мягкая, электротехническая, диаметр 1,0-3,0 мм и выше</t>
+  </si>
+  <si>
+    <t>10.3.02.03-0011</t>
+  </si>
+  <si>
+    <t>Припои оловянно-свинцовые бессурьмянистые, марка ПОС30...</t>
+  </si>
+  <si>
+    <t>0.0424</t>
+  </si>
+  <si>
+    <t>Припои оловянно-свинцовые бессурьмянистые, марка ПОС30</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>10.3.02.03-0012</t>
+  </si>
+  <si>
+    <t>Припои оловянно-свинцовые бессурьмянистые, марка ПОС40</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>10.3.02.03-0013</t>
+  </si>
+  <si>
+    <t>Припои оловянно-свинцовые бессурьмянистые, марка ПОС61</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>10.3.02.03-0028</t>
+  </si>
+  <si>
+    <t>Припои оловянно-свинцовые малосурьмянистые, марка ПОССу 61-0,5</t>
+  </si>
+  <si>
+    <t>0.2496</t>
+  </si>
+  <si>
+    <t>11.1.03.01-0077</t>
+  </si>
+  <si>
+    <t>Бруски обрезные, хвойных пород, длина 4-6,5 м, ширина 75-150 мм, толщина 40-75 мм, сорт I</t>
+  </si>
+  <si>
+    <t>0.0319</t>
+  </si>
+  <si>
+    <t>11.1.03.06-0013</t>
+  </si>
+  <si>
+    <t>Доска обрезная, лиственных пород (береза, липа), длина 2-3,75 м, все ширины, толщина 19-22 мм, сорт IIIа</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>11.2.11.05-0002</t>
+  </si>
+  <si>
+    <t>Фанера клееная обрезная, сорт В/ВВ, ФК, ФБА, толщина 4 мм</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>14.1.01.01-0003</t>
+  </si>
+  <si>
+    <t>Клей столярный сухой</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>14.1.02.01-0002</t>
+  </si>
+  <si>
+    <t>Клей БМК-5к</t>
+  </si>
+  <si>
+    <t>0.3529</t>
+  </si>
+  <si>
+    <t>14.1.04.02-0002</t>
+  </si>
+  <si>
+    <t>Клей 88-СА</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>14.4.01.01-0003</t>
+  </si>
+  <si>
+    <t>Грунтовка ГФ-021</t>
+  </si>
+  <si>
+    <t>0.0123</t>
+  </si>
+  <si>
+    <t>14.4.02.09-0001</t>
+  </si>
+  <si>
+    <t>Краска...</t>
+  </si>
+  <si>
+    <t>3.8914</t>
   </si>
   <si>
     <t>14.4.02.09-0301</t>
@@ -151,16 +790,100 @@
     <t>Композиция антикоррозионная цинкнаполненная</t>
   </si>
   <si>
-    <t>32.605</t>
-  </si>
-  <si>
-    <t>14.4.03.03-0102</t>
-  </si>
-  <si>
-    <t>Лак битумный БТ-577</t>
-  </si>
-  <si>
-    <t>0.0133</t>
+    <t>32.183</t>
+  </si>
+  <si>
+    <t>14.4.02.09-0402</t>
+  </si>
+  <si>
+    <t>Краска маркировочная для электротехнических изделий</t>
+  </si>
+  <si>
+    <t>1.6442</t>
+  </si>
+  <si>
+    <t>14.4.03.03-0002</t>
+  </si>
+  <si>
+    <t>Лак битумный БТ-123...</t>
+  </si>
+  <si>
+    <t>0.0434</t>
+  </si>
+  <si>
+    <t>14.4.03.11-0005</t>
+  </si>
+  <si>
+    <t>Лак нитроцеллюлозный НЦ-62</t>
+  </si>
+  <si>
+    <t>14.4.03.17-0011</t>
+  </si>
+  <si>
+    <t>Лак электроизоляционный 318...</t>
+  </si>
+  <si>
+    <t>1.486</t>
+  </si>
+  <si>
+    <t>14.5.09.01-0001</t>
+  </si>
+  <si>
+    <t>Ацетон технический, сорт I</t>
+  </si>
+  <si>
+    <t>0.0612</t>
+  </si>
+  <si>
+    <t>14.5.09.02-0002</t>
+  </si>
+  <si>
+    <t>Ксилол нефтяной, марка А</t>
+  </si>
+  <si>
+    <t>0.1816</t>
+  </si>
+  <si>
+    <t>14.5.09.04-0111</t>
+  </si>
+  <si>
+    <t>Отвердитель № 1</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>14.5.09.04-0114</t>
+  </si>
+  <si>
+    <t>Отвердитель № 3</t>
+  </si>
+  <si>
+    <t>14.5.09.07-0022</t>
+  </si>
+  <si>
+    <t>Растворитель № 646</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>14.5.09.07-0030</t>
+  </si>
+  <si>
+    <t>Растворитель Р-4</t>
+  </si>
+  <si>
+    <t>399.7876</t>
+  </si>
+  <si>
+    <t>14.5.09.07-0032</t>
+  </si>
+  <si>
+    <t>Растворитель Р-5</t>
+  </si>
+  <si>
+    <t>0.0028</t>
   </si>
   <si>
     <t>14.5.09.11-0102</t>
@@ -169,343 +892,1096 @@
     <t>Уайт-спирит</t>
   </si>
   <si>
-    <t>3.8352477</t>
-  </si>
-  <si>
-    <t>16.3.02.03-0004</t>
-  </si>
-  <si>
-    <t>Удобрения сложно-смешанные гранулированные насыпью</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>20.1.02.15-0011</t>
-  </si>
-  <si>
-    <t>Соединитель алюминиевых и сталеалюминиевых проводов (СОАС) 062-3</t>
+    <t>4367.082</t>
+  </si>
+  <si>
+    <t>18.5.08.09-0001</t>
+  </si>
+  <si>
+    <t>Патрубки...</t>
+  </si>
+  <si>
+    <t>7.9622</t>
+  </si>
+  <si>
+    <t>20.1.02.06-0001</t>
+  </si>
+  <si>
+    <t>Жир паяльный</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>20.1.02.23-0082</t>
+  </si>
+  <si>
+    <t>Перемычки гибкие, тип ПГС-50...</t>
+  </si>
+  <si>
+    <t>11.323</t>
+  </si>
+  <si>
+    <t>20.2.02.01-0019</t>
+  </si>
+  <si>
+    <t>Втулки изолирующие...</t>
+  </si>
+  <si>
+    <t>0.1079</t>
+  </si>
+  <si>
+    <t>20.2.02.02-0011</t>
+  </si>
+  <si>
+    <t>Заглушки</t>
+  </si>
+  <si>
+    <t>1.6745</t>
+  </si>
+  <si>
+    <t>20.2.08.05-0017</t>
+  </si>
+  <si>
+    <t>Профиль монтажный</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
-    <t>256.4720096</t>
-  </si>
-  <si>
-    <t>20.2.02.04-0006</t>
-  </si>
-  <si>
-    <t>Колпачки полиэтиленовые</t>
-  </si>
-  <si>
-    <t>6.12</t>
+    <t>0.4412</t>
+  </si>
+  <si>
+    <t>20.2.10.03-0006</t>
+  </si>
+  <si>
+    <t>Наконечники кабельные медные соединительные</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>21.2.01.02-0141</t>
+  </si>
+  <si>
+    <t>Провод неизолированный для воздушных линий электропередачи медные, марка М, сечение 4 мм2</t>
+  </si>
+  <si>
+    <t>0.0305</t>
+  </si>
+  <si>
+    <t>0.0024</t>
+  </si>
+  <si>
+    <t>21.2.03.09-0101</t>
+  </si>
+  <si>
+    <t>Провод силовой АПРН 1х35-660</t>
+  </si>
+  <si>
+    <t>1000 м</t>
+  </si>
+  <si>
+    <t>0.0056</t>
+  </si>
+  <si>
+    <t>22.2.02.11-0051</t>
+  </si>
+  <si>
+    <t>Гайки установочные заземляющие...</t>
+  </si>
+  <si>
+    <t>0.5934</t>
+  </si>
+  <si>
+    <t>24.3.01.01-0002</t>
+  </si>
+  <si>
+    <t>Трубка полихлорвиниловая...</t>
+  </si>
+  <si>
+    <t>1.3172</t>
+  </si>
+  <si>
+    <t>24.3.01.01-0004</t>
+  </si>
+  <si>
+    <t>Трубка электроизоляционная ПВХ-305, диаметр 6-10 мм</t>
+  </si>
+  <si>
+    <t>0.0057</t>
+  </si>
+  <si>
+    <t>24.3.03.01-0101</t>
+  </si>
+  <si>
+    <t>Трубка полиэтиленовая, диаметр 6-10 мм</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>25.2.01.01-0001</t>
+  </si>
+  <si>
+    <t>Бирки-оконцеватели</t>
+  </si>
+  <si>
+    <t>12.261</t>
+  </si>
+  <si>
+    <t>25.2.01.01-0017</t>
+  </si>
+  <si>
+    <t>Бирки маркировочные пластмассовые</t>
+  </si>
+  <si>
+    <t>3.51</t>
   </si>
   <si>
     <t>999-9950</t>
   </si>
   <si>
-    <t>Вспомогательные ненормируемые ресурсы (2% от Оплаты труда рабочих)</t>
+    <t>Вспомогательные ненормируемые ресурсы (2% от Оплаты труда рабочих)...</t>
   </si>
   <si>
     <t>руб</t>
   </si>
   <si>
-    <t>23.8716</t>
-  </si>
-  <si>
-    <t>Прайс-лист №102</t>
+    <t>1916.7443</t>
+  </si>
+  <si>
+    <t>Прайс лист 16.11</t>
+  </si>
+  <si>
+    <t>КПсКнг-HF-э-ХЛ 2х2х1,0 (НВЛ)</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 1.1 (02.2019) КСМ 1022032 (п.8698)</t>
+  </si>
+  <si>
+    <t>Профиль 120х120х5 ст3сп5 (Прим. - Профиль 120х120х5 ГОСТ 30245-2003 / С255 ГОСТ 27772-2015)</t>
+  </si>
+  <si>
+    <t>4.439448</t>
+  </si>
+  <si>
+    <t>Прайс-лист 1.1 (02.2019) КСМ 1057068 (п.17608)</t>
+  </si>
+  <si>
+    <t>Лист 4 ГОСТ 19903-2015 / С255 ГОСТ 27772-2015</t>
+  </si>
+  <si>
+    <t>0.0506</t>
+  </si>
+  <si>
+    <t>Прайс-лист 1.1 Код в КСМ 2017335</t>
+  </si>
+  <si>
+    <t>Клапан запорный проходной DN 25, PN 10 МПа с муфтовым присоединением с внутренней трубной конической резьбой Rc1. Класс герметичности затвора арматуры «А» по ГОСТ 9544-2015</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.1</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>шт.</t>
-  </si>
-  <si>
-    <t>1066.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Вязка спиральная  ВС-35/50.2</t>
-  </si>
-  <si>
-    <t>204.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Зажим аппаратный А2А-50</t>
-  </si>
-  <si>
-    <t>175.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Зажим натяжной  НЗ-2-7</t>
-  </si>
-  <si>
-    <t>263.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Звено промежуточное     ПРТ-7-1</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Изолятор полимерный стержневой  ЛК70/10-ГП</t>
-  </si>
-  <si>
-    <t>292.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Устройство птицезащитное контактного типа  ЗП-К1</t>
-  </si>
-  <si>
-    <t>102.2</t>
-  </si>
-  <si>
-    <t>Прайс-лист №104</t>
-  </si>
-  <si>
-    <t>Зажим поддерживающий глухой  ПНГ-3-5</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>Прайс-лист №49</t>
-  </si>
-  <si>
-    <t>Прокат стальной горячекатанный круглый, оцинкованный по ГОСТ 9.307-89 В-II-10 ГОСТ 2590-2006</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>Прайс-лист №96</t>
-  </si>
-  <si>
-    <t>Уст...</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Установка разъединителя на концевых опорах КР-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Устройство ответвления на концевой опоре УОК</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Устройство ответвления на промежуточной опоре УОП</t>
-  </si>
-  <si>
-    <t>Прайс-лист №97</t>
-  </si>
-  <si>
-    <t>Угловая анкерная УАтБ10-26</t>
-  </si>
-  <si>
-    <t>Прайс-лист №98</t>
-  </si>
-  <si>
-    <t>Промежуточная П10-1н (Прим.)</t>
-  </si>
-  <si>
-    <t>Прайс-лист №99</t>
-  </si>
-  <si>
-    <t>Концевая КтБ10-26</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>ФССЦ-01.7.12.08-0042</t>
-  </si>
-  <si>
-    <t>Георешетка полиэфирная тканая для армирования конструктивных слоев, марка "АРМИСЕТ-RU 35/30 (330)"</t>
-  </si>
-  <si>
-    <t>м2</t>
-  </si>
-  <si>
-    <t>374.4</t>
-  </si>
-  <si>
-    <t>ФССЦ-01.7.15.03-0031</t>
-  </si>
-  <si>
-    <t>Болты с гайками и шайбами оцинкованные, диаметр 6 мм</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>ФССЦ-02.2.04.03-0003</t>
-  </si>
-  <si>
-    <t>Смесь песчано-гравийная природная</t>
-  </si>
-  <si>
-    <t>132.396</t>
-  </si>
-  <si>
-    <t>ФССЦ-02.3.01.02-0003</t>
-  </si>
-  <si>
-    <t>Песок для строительных работ природный 50%; обогащенный 50%</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>ФССЦ-08.3.04.02-0096</t>
-  </si>
-  <si>
-    <t>Сталь круглая углеродистая обыкновенного качества марки ВСт3пс5-1 диаметром 18 мм (прим.) (Круг оцинкованный В-II-16 )</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>ФССЦ-08.3.07.01-0056</t>
-  </si>
-  <si>
-    <t>Сталь полосовая 60х4 мм, марка Ст3сп (прим) (Прокат стальной горячекатанный полосовой, оцинкованный по ГОСТ 9.307-89  Б-4х40\r\nГОСТ 103-2006)</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>ФССЦ-16.2.02.07-0041</t>
-  </si>
-  <si>
-    <t>Семена трав: житняк (эспарцет 24 кг/га)</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>ФССЦ-16.2.02.07-0061</t>
-  </si>
-  <si>
-    <t>Семена трав: костер (костер безостый 24 кг/га)</t>
-  </si>
-  <si>
-    <t>ФССЦ-16.2.02.07-0101</t>
-  </si>
-  <si>
-    <t>Семена трав: люцерна (люцерна желтогибридная 32 кг/га)</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>ФССЦ-16.2.02.07-0161</t>
-  </si>
-  <si>
-    <t>Семена газонных трав (смесь)</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>ФССЦ-16.3.02.01-0003</t>
-  </si>
-  <si>
-    <t>Удобрения: минеральное комплексное "Нитрофоска"</t>
-  </si>
-  <si>
-    <t>116.1</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.1.01.08-0019</t>
-  </si>
-  <si>
-    <t>Зажим ответвительный с прокалыванием изоляции (СИП) Р95 (Ответвительный зажим  ОАЗ-2)</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.1.01.11-0001</t>
-  </si>
-  <si>
-    <t>Зажим плашечный ...</t>
-  </si>
-  <si>
-    <t>131.4</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.1.02.14-0001</t>
-  </si>
-  <si>
-    <t>Серьга (Прим.СРС-7-16)</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.1.02.22-0006</t>
-  </si>
-  <si>
-    <t>Ушко однолапчатое У1-12-16 (Прим)</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.2.02.04-0006</t>
-  </si>
-  <si>
-    <t>1.022</t>
-  </si>
-  <si>
-    <t>ФССЦ-20.2.10.04-0002</t>
-  </si>
-  <si>
-    <t>Наконечники кабельные медные луженные ТМЛ-6</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>ФССЦ-21.2.01.01-0047</t>
-  </si>
-  <si>
-    <t>Провода самонесущие изолированные для воздушных линий электропередачи с алюминиевыми жилами марки СИП-3 1х50-20</t>
-  </si>
-  <si>
-    <t>1000 м</t>
-  </si>
-  <si>
-    <t>8.8768</t>
-  </si>
-  <si>
-    <t>ФССЦ-21.2.03.05-0051</t>
-  </si>
-  <si>
-    <t>Провода силовые для электрических установок на напряжение до 450 В с медной жилой марки ПВ1, сечением 6 мм2 (прим) (Провод с медной жилой, с ПВХ изоляцией, повышенной гибкости, сечением: 6 мм?)</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>ФССЦ-22.2.01.04-0002</t>
-  </si>
-  <si>
-    <t>Изоляторы линейные штыревые высоковольтные ШФ 20-В ( Изолятор штыревой ШФ 20Г)</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>ФССЦ-23.3.06.05-0003</t>
-  </si>
-  <si>
-    <t>Трубы стальные сварные водогазопроводные с резьбой черные обыкновенные (неоцинкованные), диаметр условного прохода 25 мм, толщина стенки 3,2 мм</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>293.221757</t>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.39 п. 35</t>
+  </si>
+  <si>
+    <t>Ворота ОГ–В–РД–2,5–4,5 П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.40 п.1</t>
+  </si>
+  <si>
+    <t>Дополнительное верхнее ограждение ОГ–ДВ–О П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>п.м.</t>
+  </si>
+  <si>
+    <t>767.1</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.40 п.7</t>
+  </si>
+  <si>
+    <t>Дополнительное верхнее ограждение ОГ–ДВ–П П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.42 п. 14</t>
+  </si>
+  <si>
+    <t>- Калитка ОГ–К–Л–2,5-Ф2-УХЛ П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.43 п.11</t>
+  </si>
+  <si>
+    <t>- Панель ограждения ОГ–П–1,25–3,0-УХЛ П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.44 п. 26</t>
+  </si>
+  <si>
+    <t>- Секция ограждения ОГ–СО–2,0–2,5-Ф2-1-УХЛ П4-06 М-0076  (Прим. Секция ограждения ОГ-СО-2,5-1,0-1-Ф2-УДХ П4-06 М-0076)</t>
+  </si>
+  <si>
+    <t>- Секция ограждения ОГ–СО–2,0–2,5-Ф2-1-УХЛ П4-06 М-0076  (Прим. Секция ограждения ОГ-СО-2,5-1,5-1-Ф2-УДХ П4-06 М-0076)</t>
+  </si>
+  <si>
+    <t>- Секция ограждения ОГ–СО–2,0–2,5-Ф2-1-УХЛ П4-06 М-0076 (Прим. Секция ограждения ОГ-СО-2,5-2,0-1-Ф2-УДХ П4-06 М-0076)</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Секция ограждения ОГ-СО-2,5-2,5-1-Ф2-УДХ П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>Прайс-лист 2.44 п. 29</t>
+  </si>
+  <si>
+    <t>Секция ограждения ОГ-СО-2,5-3,0-1-Ф2-УДХ П4-06 М-0076</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист 3.2</t>
+  </si>
+  <si>
+    <t>18632.9</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 10.14</t>
+  </si>
+  <si>
+    <t>Корпус пластиковый 300х150х146,  для установки считывателя</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 10.17</t>
+  </si>
+  <si>
+    <t>Плата монтажная для основания 300x150 с крепежом для установки в корпус пластиковый 300х150х146</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 11.221</t>
+  </si>
+  <si>
+    <t>Кабель оптической связи ДН-1,5-6z-4/4</t>
+  </si>
+  <si>
+    <t>км</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 11.451</t>
+  </si>
+  <si>
+    <t>Модуль для оптических боксов 4 разъема SC SM UPC</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 11.452</t>
+  </si>
+  <si>
+    <t>Оптический патч-корд LC/UPC-FC/UPC duplex 9/125 одномодовый дуплексный длиной 2м</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 11.453</t>
+  </si>
+  <si>
+    <t>Оптический патч-корд LC/UPC-LC/UPC duplex 9/125 одномодовый дуплексный длиной 2м</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.152</t>
+  </si>
+  <si>
+    <t>Лоток прямой монтажный перфорированный, оцинкованный (горячее цинкование), размерами 100х65 мм, длиной 2,0 м, толщина металла 1,5 мм\r\nЛМ 100х65 УХЛ1</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.245</t>
+  </si>
+  <si>
+    <t>Лотки монтажные прямые глухие b=100 ЛМГ 100х65 ХЛ1.5 (Кабель контрольный с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А сечением    4x1.5-0.66 кВ КВБбШнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>790.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.256</t>
+  </si>
+  <si>
+    <t>Лотки монтажные прямые глухие b=100 ЛМГ 100х65 ХЛ1.5</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>Полоса оцинкованная 4х40  В-2 ГОСТ 103-2006/ГОСТ 9.307-89, В Ст3 сп5 ГОСТ 535-2005</t>
+  </si>
+  <si>
+    <t>881.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.257</t>
+  </si>
+  <si>
+    <t>Круг оцинкованный  Ø16 В-II-16 ГОСТ 2590-2006/ГОСТ 9.307-89, Ст3 сп5 ГОСТ 535-2005</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.449</t>
+  </si>
+  <si>
+    <t>Муфта вводная (МВ32 У2,5)</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.450</t>
+  </si>
+  <si>
+    <t>Муфта трубная (МТ32 У2,5)</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 5.584</t>
+  </si>
+  <si>
+    <t>Крышка углового лотка для поворота трассы на 90°, оцинкованная (горячее цинкование), шириной 100 мм, толщина металла 1,5 мм\r\nКЛУ 100-90 УХЛ1</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 8.124</t>
+  </si>
+  <si>
+    <t>Мастика терморасширяющая противопожарная, 1 кг , Температура эксплуатации: от -60°С до +80°С</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.16</t>
+  </si>
+  <si>
+    <t>Шкаф телекоммуникационный 42U</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.2</t>
+  </si>
+  <si>
+    <t>Краска термостойкая по металлу</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.223</t>
+  </si>
+  <si>
+    <t>Муфта РКн-25 вводная для гофротрубы с наружной резьбой</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.224</t>
+  </si>
+  <si>
+    <t>Фал капроновый D=6 мм (1 шт - 20 м)</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.251</t>
+  </si>
+  <si>
+    <t>ОКЛМ-Св-2-8Е2-Н-Э-Н-В-УН-7,0-1А-У1\r\nОК: Вид МТР: Кабель оптический\r\nЛ: Классификация ОК: Для прокладки в лотке\r\nМ: Тип конструкции: Модульная\r\nСв: Тип центрального силового элемента : Диэлектрический стержень из стекловолокна\r\n2: Количество оптических модулей, шт: 2\r\n8: Количество ОВ, шт: 8\r\nЕ2: Тип ОВ в соответствии с ГОСТ Р 52266: Одномодовое с минимизированными потерями Е2 (B1.2)\r\nН: Количество ТЖ, шт: Не требуется (для трубчатой конструкции)\r\nЭ: Наружная оболочка: Сшитый ПЭ\r\nН: Наличие брони под наружной оболочкой: Не требуется\r\nВ: Наличие водоблокирующего элемента: Требуется\r\nУ: Стойкость к УФ-излучению: Требуется\r\nН: Теплостойкое исполнение (до 125° С): Не требуется\r\n7,0: Устойчивость к растяжению силой, кН, не более: 7,0\r\n1: Взрывоопасная зона размещения в соответствии с ГОСТ 30852.9: Зона класса 1\r\nА: Исполнение по пожарной безопасности в соответствии с ГОСТ 31565: нг(А)\r\nУ1: Климатическое исполнение в соответствии с ГОСТ 15150: УХЛ1</t>
+  </si>
+  <si>
+    <t>1.709</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.256</t>
+  </si>
+  <si>
+    <t>Блок розеток, 9 гнезд, 16 А</t>
+  </si>
+  <si>
+    <t>Прайс-лист № 9.257</t>
+  </si>
+  <si>
+    <t>HDMI-HDMI кабель, 3м</t>
+  </si>
+  <si>
+    <t>Прайс-лист №2.1</t>
+  </si>
+  <si>
+    <t>Толстослойная эпоксидная грунт-эмаль толщиной 350 мкм</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист №3.28</t>
+  </si>
+  <si>
+    <t>Фланцевая пара DN 100, PN 1,6 МПа в сборе, в составе:\r\n-фланец 100-16-11-1-B-09Г2С-IV\r\n-заглушка фланцевая  1-100-1,6-09Г2С-IV\r\n-прокладки, крепеж\r\nВид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Фланцевая пара DN 50, PN 1,6 МПа в сборе, в составе:\r\n-фланец 50-16-11-1-B-09Г2С-IV\r\n-заглушка фланцевая  1-50-1,6-09Г2С-IV\r\n-прокладки, крепеж\r\nВид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>Фланцевая пара DN 80, PN 1,6 МПа в сборе, в составе:\r\n-фланец 80-16-11-1-B-09Г2С-IV\r\n-заглушка фланцевая  1-80-1,6-09Г2С-IV\r\n-прокладки, крепеж\r\nВид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист №3.33</t>
+  </si>
+  <si>
+    <t>Заглушка фланцевая 1-100-1,6-09Г2С-IV  в комплекте с прокладкой, крепежом</t>
+  </si>
+  <si>
+    <t>Заглушка фланцевая 1-350-0,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>Заглушка фланцевая 1-500-0,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Заглушка фланцевая 1-50-4,0-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69</t>
+  </si>
+  <si>
+    <t>Прайс-лист №5.337\r\nТЗД</t>
+  </si>
+  <si>
+    <t>Коробка зажимов из нержавеющей стали общепромышленная, номинальный ток зажимов 40 А (с 10 клеммными зажимами и ...</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>Прайс-лист №5.446</t>
+  </si>
+  <si>
+    <t>Шланг электромонтажный ШЭМ32У2.5 ТУ 22-5570-83</t>
+  </si>
+  <si>
+    <t>Прайс-лист №5.682</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    5x10-0.66 кВ</t>
+  </si>
+  <si>
+    <t>Прайс-лист №5.688</t>
+  </si>
+  <si>
+    <t>Светильник светодиодный, IP65, максимальная потребляемая мощность 84 Вт, кривая силы света широкая осевая, световой поток не менее 8000 лм, рабочая температура -60˚ …+40˚ С с креплением на кронштейн</t>
+  </si>
+  <si>
+    <t>ФССЦ-01.1.02.08-0031</t>
+  </si>
+  <si>
+    <t>Прокладки паронитовые</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>ФССЦ-01.3.02.01-0002</t>
+  </si>
+  <si>
+    <t>Азот газообразный технический</t>
+  </si>
+  <si>
+    <t>26.866</t>
+  </si>
+  <si>
+    <t>ФССЦ-01.7.06.08-0012</t>
+  </si>
+  <si>
+    <t>Лента сигнальная полиэтиленовая ЛСЭ-300, длина 100 м, ширина 300 мм (Лента сигнальная  красный фон,  надпись черная  "Осторожно кабель!",  ширина 300мм, толщина 300 мкм)</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>ФССЦ-01.7.15.03-1002</t>
+  </si>
+  <si>
+    <t>Болты для монтажа стальных конструкций, в комплекте с гайками и шайбами, диаметр 24-48 мм, длина 55-300 мм (   - Болт 2.1.М24х250 345-09Г2С-6 ГОСТ 24379.1-2012)</t>
+  </si>
+  <si>
+    <t>43.84</t>
+  </si>
+  <si>
+    <t>ФССЦ-01.7.15.10-0041</t>
+  </si>
+  <si>
+    <t>Скобы (Скоба для крепления крышки лотка высотой 65 мм, материал - пружинная сталь толщиной 1 мм\r\nСКЛ 65 УХЛ1)</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-02.3.01.07-0004</t>
+  </si>
+  <si>
+    <t>Песок кварцевый ЛПК-5</t>
+  </si>
+  <si>
+    <t>223058.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-07.2.02.02-0073</t>
+  </si>
+  <si>
+    <t>Кронштейн для консольных и подвесных светильников, серия 1 (Стандарт), марка: 1.К1-1,5-1,0-Ф1-ц (ТАНС.41.254.000) (Кронштейн однорожковый (1750620/0248Д-Р-012.001.007-ЭС-01-ОЛ-003))</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-07.2.07.12-0011</t>
+  </si>
+  <si>
+    <t>Отдельные конструктивные элементы зданий и сооружений с преобладанием: гнутосварных профилей и круглых труб, средняя масса сборочной единицы до 0,1 т (стойки калитки)</t>
+  </si>
+  <si>
+    <t>0.0933</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.1.02.13-0009</t>
+  </si>
+  <si>
+    <t>Рукава металлические из стальной оцинкованной ленты, негерметичные, простого профиля, РЗ-ЦХ, диаметр условный 25 мм (Металлорукав гибкий из оцинкованной стали в ПВХ изоляции, диаметр условного прохода 25 мм, УХЛ1 \r\nР3-Ц-Пнг-25)</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.1.02.13-0011</t>
+  </si>
+  <si>
+    <t>Рукава металлические из стальной оцинкованной ленты, негерметичные, простого профиля, РЗ-ЦХ, диаметр условный 32 мм (Рукав гибкий металлический Р3-Ц-П-32, УХЛ1)</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.1.02.25-0021</t>
+  </si>
+  <si>
+    <t>Дробь металлическая</t>
+  </si>
+  <si>
+    <t>26.7091</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.04.02-0091</t>
+  </si>
+  <si>
+    <t>Круг стальной горячекатаный, марка стали ВСт3пс5-1, диаметр 8 мм</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.05.02-0003</t>
+  </si>
+  <si>
+    <t>Прокат толстолистовой горячекатаный в листах с обрезными кромками толщиной 9-12 мм, шириной от 1400 до 1500 мм, сталь: С255 (Лист 10 ГОСТ 19903-2015 / С255 ГОСТ 27772-2015)</t>
+  </si>
+  <si>
+    <t>3.15282</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.05.02-0022</t>
+  </si>
+  <si>
+    <t>Прокат тонколистовой горячекатаный в листах с обрезными кромками шириной от 1200 до 1300 мм, толщиной 3,2-3,9 мм, сталь марки: С255 (Лист 4 ГОСТ 19903-2015 / С255 ГОСТ 27772-2015)</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.05.02-0023</t>
+  </si>
+  <si>
+    <t>Прокат тонколистовой горячекатаный в листах с обрезными кромками шириной от 1200 до 1300 мм, толщиной 3,2-3,9 мм, сталь марки: С345</t>
+  </si>
+  <si>
+    <t>0.225568</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.08.03-0003</t>
+  </si>
+  <si>
+    <t>Прокат угловой горячекатаный нормальной точности прокатки немерной длины из стали: С255 (Уголок ...</t>
+  </si>
+  <si>
+    <t>0.2121</t>
+  </si>
+  <si>
+    <t>ФССЦ-08.3.11.01-0083</t>
+  </si>
+  <si>
+    <t>Швеллеры № 40 из горячекатаного проката немерной длины нормальной точности прокатки из стали: С255 (Швеллер 14У ГОСТ 8240-97 / С255 ГОСТ 27772-2015)</t>
+  </si>
+  <si>
+    <t>0.637337</t>
+  </si>
+  <si>
+    <t>ФССЦ-14.4.01.09-1062</t>
+  </si>
+  <si>
+    <t>Состав (грунт-эмаль) двухкомпонентный эпоксидный цинконаполненный, антикоррозионный для металлических изделий и конструкций, химическистойкий, гидрофобный, сухой остаток 65%, характеристики при температуре 20°С: плотность от 2,7 до 2,9 г/см3 (Грунт-эмаль эпоксиэфирная цинковая для длительной антикоррозионной защиты стальных изделий )</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.03.06-0051</t>
+  </si>
+  <si>
+    <t>Крышка прямого лотка КЛ 100 ХЛ1</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.03.13-0008</t>
+  </si>
+  <si>
+    <t>Полка кабельная К-1163ц из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.03.21-0005</t>
+  </si>
+  <si>
+    <t>Соединитель лотковый СЛ 240х65 ХЛ1, из стали 2,0 мм, горячеоцинкованный (Соединитель лотковый, оцинкованный (горячее цинкование), высотой 50,5 мм, толщина металла 1,5 мм\r\nСЛ.ЛМх65 УХЛ1)</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.03-0005</t>
+  </si>
+  <si>
+    <t>Заглушка для короба 60х40 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.04-0028</t>
+  </si>
+  <si>
+    <t>Кабель-канал (короб) 40х25 мм (Короб кабельный с крышкой 25х30х2000 (пластик))</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.04-0030</t>
+  </si>
+  <si>
+    <t>Кабель-канал (короб) 60х40 мм</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.05-0002</t>
+  </si>
+  <si>
+    <t>Кабель-канал 190х60х2000 мм с крышкой (Короб кабельный с крышкой 200х60х2000 (пластик))</t>
+  </si>
+  <si>
+    <t>100 м</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0014</t>
+  </si>
+  <si>
+    <t>Угол внешний изменяемый для кабель-канала 40х25 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0034</t>
+  </si>
+  <si>
+    <t>Угол внутренний изменяемый для кабель-канала 40х25 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0035</t>
+  </si>
+  <si>
+    <t>Угол внутренний изменяемый для кабель-канала 60х40 мм</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0042</t>
+  </si>
+  <si>
+    <t>Угол внутренний изменяемый для кабель-канала 190х60 мм (Угол внутренний с крышкой 200х60 (пластик))</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0064</t>
+  </si>
+  <si>
+    <t>Угол плоский для кабель-канала 40х25 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0065</t>
+  </si>
+  <si>
+    <t>Угол плоский для кабель-канала 60х40 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.05.09-0071</t>
+  </si>
+  <si>
+    <t>Угол плоский для кабель-канала 190х60 мм (Угол плоский с крышкой 200х60 (пластик))</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.07.09-0011</t>
+  </si>
+  <si>
+    <t>Угол горизонтальный 90° перфорированный КГ 100х65-90 ХЛ1, горячеоцинкованный (Лоток угловой для поворота трассы на 90° перфорированный, оцинкованный (горячее цинкование), размерами 100х65 мм, толщина металла 1,5 мм\r\nКГ 100х65-90 УХЛ1)</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.08.04-0001</t>
+  </si>
+  <si>
+    <t>Полоса К-106, сечение 40х4 мм</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.08.05-0017</t>
+  </si>
+  <si>
+    <t>Профиль монтажный (Профиль монтажный С-образный К110/2ХЛ1)</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.08.07-0013</t>
+  </si>
+  <si>
+    <t>Скоба К-142 (Скоба монтажная двухлапковая, оцинкованная  (горячее цинкование), диаметр закрепляемого кабеля (пучка) 34 мм\r\nК143ц УХЛ2,5)</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.10.03-0008</t>
+  </si>
+  <si>
+    <t>Наконечники кабельные медные ТМ-6</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.2.12.03-0001</t>
+  </si>
+  <si>
+    <t>Трубы гибкие гофрированные двустенные из ПВХ, диаметр 50 мм (Труба гофрированная двустенная ПНД/ПВД, ∅50)</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-20.4.04.05-0001</t>
+  </si>
+  <si>
+    <t>Ящик протяжной стальной К-654, IP54, размер 400х400х200 мм</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.04.01-1024</t>
+  </si>
+  <si>
+    <t>Кабель витая пара F/UTP 4х2х0,52, категория 5e\r\n(Кабель КВПЭфнг(А)-LS-5е 4х2х0,52 (НВЛ))</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>Кабель витая пара F/UTP 4х2х0,52, категория 5e\r\n(КСОБ-4х2х0.52-F/UTP-6-Пс-С-У-НД-У1\r\nКС: Вид МТР: Кабель связи симметричный\r\nО: Конструктивное исполнение ТЖ по ГОСТ 22483: Однопроволочные\r\nБ: Материал ТЖ по ГОСТ 22483: Медные без металлического покрытия\r\n4х2: Количество витых пар ТЖ, шт: 4х2\r\n0.52: Диаметр ТЖ, мм: 0.52\r\nF/UTP: Конструкция КС в соответствии с ГОСТ Р 54429: КС в общем экране из фольги\r\n6: Категория КС в соответствии с ГОСТ Р 54429: Диапазон частот до 250 МГц\r\nПс: Наружная оболочка: ПЭ светостабилизированный\r\nС: Цвет наружной оболочки: Серый\r\nУ: Стойкость к УФ-излучению: Требуется\r\nН: Взрывоопасная зона размещения в соответствии с ГОСТ 30852.9: Не взрывоопасная зона\r\nД: Исполнение по пожарной безопасности в соответствии с ГОСТ 31565: нг(А)-LS\r\nУ1: Климатическое исполнение в соответствии с ГОСТ 15150: УХЛ1)</t>
+  </si>
+  <si>
+    <t>1.517</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0151</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВВГнг(A)-LS 3х1,5-660</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0152</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВВГнг(A)-LS 3х2,5-660</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВВГнг(A)-LS 3х2,5-660 (Кабель силовой ВВГнг(А)-LS 3х2,5ок-0,66 (НВЛ))</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВВГнг(A)-LS 3х2,5-660 (Кабель силовой с медными жилами с ПВХ изоляцией  не распространяющей горение при групповой прокладке по категории А, с низким дымо- и газовыделением, сечением:    3x2.5-0.66 кВ)</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0153</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВВГнг(A)-LS 3х4-660</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0195</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВБбШв 3х1,5-660 (Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    3x1,5-0.66 кВ ВБШвнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0196</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВБбШв 3х2,5-660 (Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    3x2,5-0.66 кВ ВБШвнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>2.205</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0197</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВБбШв 3х4-660 (Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    3x4-0.66 кВ ВБШвнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>1.063</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0207</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВБбШв 4х4-660 (Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    4x4-0.66 кВ ВБШвнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.06.09-0213</t>
+  </si>
+  <si>
+    <t>Кабель силовой с медными жилами ВБбШв 5х4-660 (Кабель силовой с медными жилами бронированный с ПВХ изоляцией, не распространяющей горение при групповой прокладке по категории А, в холодостойком исполнении сечением    5x4-0.66 кВ ВБШвнг(А)-ХЛ)</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.08.03-0049</t>
+  </si>
+  <si>
+    <t>Кабель контрольный КВВГнг(A)-FRLS 7х1,5 (Кабель контрольный КВВГнг(А)-FRLS 7х1,0 (НВЛ))</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.08.03-0516</t>
+  </si>
+  <si>
+    <t>Кабель контрольный КВВГнг(A)-LS 5х1 (Кабель контрольный КВВГнг(А)-ХЛ 5х1,0 (НВЛ))</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.1.08.03-0551</t>
+  </si>
+  <si>
+    <t>Кабель контрольный КВВГнг-LS 4х1 (Кабель контрольный КВВГНГ-LS 4Х1,0 (НВЛ))</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>ФССЦ-21.2.03.05-0070</t>
+  </si>
+  <si>
+    <t>Провод силовой установочный с медными жилами ПВ3 6-450 (Провод  ПуГВ-ХЛ1 1х6.0 З-Ж)</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Провод силовой установочный с медными жилами ПВ3 6-450 (Провод ПуГВ 1х6 (НВЛ))</t>
+  </si>
+  <si>
+    <t>Провод силовой установочный с медными жилами ПВ3 6-450 (Провод с медной жилой, с ПВХ изоляцией, повышенной гибкости, Ж-З,  сечением 6 мм²)</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>ФССЦ-22.1.02.04-0003</t>
+  </si>
+  <si>
+    <t>Коннектор (джек) RJ-45 8P-8C CAT6 (со вставкой) REXANT (Разъем RJ-45 под витую пару, категория 6, без вставки)</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.3.06.02-0006</t>
+  </si>
+  <si>
+    <t>Трубы стальные сварные оцинкованные водогазопроводные с резьбой, обыкновенные, номинальный диаметр 50 мм, толщина стенки 3,5 мм</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.3.06.05-0004</t>
+  </si>
+  <si>
+    <t>Трубы стальные сварные неоцинкованные водогазопроводные с резьбой, обыкновенные, номинальный диаметр 32 мм, толщина стенки 3,2 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.3.06.05-0006</t>
+  </si>
+  <si>
+    <t>Трубы стальные сварные неоцинкованные водогазопроводные с резьбой, обыкновенные, номинальный диаметр 50 мм, толщина стенки 3,5 мм</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.5.02.02-0036</t>
+  </si>
+  <si>
+    <t>Трубы стальные электросварные прямошовные со снятой фаской из стали марок Ст2кп-Ст4кп и Ст2пс-Ст4пс, наружный диаметр 76 мм, толщина стенки 3 мм (Труба 76х3 ГОСТ 10704-91 / С255 ГОСТ 27772-2015)</t>
+  </si>
+  <si>
+    <t>0.3876</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.8.03.01-0041</t>
+  </si>
+  <si>
+    <t>Заглушки стальные фланцевые, номинальный диаметр 100 мм  (Заглушка фланцевая 1-100-1,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69)</t>
+  </si>
+  <si>
+    <t>Заглушки стальные фланцевые, номинальный диаметр 100 мм  (Заглушка фланцевая 1-80-1,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69)</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.8.03.01-0042</t>
+  </si>
+  <si>
+    <t>Заглушки стальные фланцевые, номинальный диаметр 150 мм (Заглушка фланцевая 1-150-1,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69)</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.8.03.01-0044</t>
+  </si>
+  <si>
+    <t>Заглушки стальные фланцевые, номинальный диаметр 200 мм (Заглушка фланцевая 1-200-1,6-09Г2С-IV  в комплекте с прокладкой, крепежом. Вид климатического исполнения - ХЛ1 по ГОСТ 15150-69)</t>
+  </si>
+  <si>
+    <t>ФССЦ-23.8.03.04-0195</t>
+  </si>
+  <si>
+    <t>Муфты соединительные, номинальный диаметр 50 мм</t>
+  </si>
+  <si>
+    <t>ФССЦ-24.3.01.02-0002</t>
+  </si>
+  <si>
+    <t>Трубы гибкие гофрированные из самозатухающего ПВХ легкие с протяжкой, диаметр 25 мм (Труба D25 гибкая гофрированная легкого типа из самозатухающего ПВХ- полипропилена, легкая со стальной протяжкой)</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>ФССЦ-24.3.05.19-0001</t>
+  </si>
+  <si>
+    <t>Пробки П-М27х2 (прим. для Пробка с наружной трубной конической резьбой R 1. (по типу ОСТ 26.260.460-99))</t>
+  </si>
+  <si>
+    <t>ФССЦ-25.2.02.11-0021</t>
+  </si>
+  <si>
+    <t>Лента крепления, ширина 20 мм, толщина 0,7 мм, длина 50 м, из нержавеющей стали (в пластмассовой коробке с кабельной бухтой) F207 (СИП)</t>
+  </si>
+  <si>
+    <t>Лента крепления, ширина 20 мм, толщина 0,7 мм, длина 50 м, из нержавеющей стали (в пластмассовой коробке с кабельной бухтой) F207 (СИП) (Лента бандажная, толщина 0.7, ширина 20 мм)</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>ФССЦ-25.2.02.11-0051</t>
+  </si>
+  <si>
+    <t>Скрепа для фиксации на промежуточных опорах, размер 20 мм...</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>ФССЦ-26.1.01.07-0001</t>
+  </si>
+  <si>
+    <t>Бобышки прямые тип БМ20 (прим. для Бобышка установочная с наружной трубной конической резьбой R1. Длина 100 мм. (по типу ОСТ 26.260.460-99))</t>
+  </si>
+  <si>
+    <t>ФССЦ-62.2.01.04-0028</t>
+  </si>
+  <si>
+    <t>Пост управления кнопочный, тип ПКЕ-222-1 У2 (Пост кнопочный "Пуск-Стоп", IP54)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,80 +2369,80 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -977,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -985,156 +2461,156 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1142,38 +2618,38 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
@@ -1181,464 +2657,3026 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" t="s">
+        <v>342</v>
+      </c>
+      <c r="C114" t="s">
+        <v>343</v>
+      </c>
+      <c r="D114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>345</v>
+      </c>
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>361</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" t="s">
+        <v>366</v>
+      </c>
+      <c r="D121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>368</v>
+      </c>
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124" t="s">
+        <v>374</v>
+      </c>
+      <c r="C124" t="s">
+        <v>310</v>
+      </c>
+      <c r="D124" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>376</v>
+      </c>
+      <c r="B126" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>376</v>
+      </c>
+      <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" t="s">
+        <v>310</v>
+      </c>
+      <c r="D128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>387</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
+        <v>310</v>
+      </c>
+      <c r="D132" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>391</v>
+      </c>
+      <c r="B133" t="s">
+        <v>392</v>
+      </c>
+      <c r="C133" t="s">
+        <v>393</v>
+      </c>
+      <c r="D133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" t="s">
+        <v>398</v>
+      </c>
+      <c r="C135" t="s">
+        <v>310</v>
+      </c>
+      <c r="D135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>399</v>
+      </c>
+      <c r="B136" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" t="s">
+        <v>405</v>
+      </c>
+      <c r="C138" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" t="s">
+        <v>408</v>
+      </c>
+      <c r="C139" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>407</v>
+      </c>
+      <c r="B140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C140" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" t="s">
+        <v>413</v>
+      </c>
+      <c r="C141" t="s">
+        <v>166</v>
+      </c>
+      <c r="D141" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" t="s">
+        <v>356</v>
+      </c>
+      <c r="D142" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" t="s">
+        <v>356</v>
+      </c>
+      <c r="D143" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" t="s">
+        <v>421</v>
+      </c>
+      <c r="C144" t="s">
+        <v>310</v>
+      </c>
+      <c r="D144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>425</v>
+      </c>
+      <c r="B146" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" t="s">
+        <v>310</v>
+      </c>
+      <c r="D146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" t="s">
+        <v>428</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>429</v>
+      </c>
+      <c r="B148" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>432</v>
+      </c>
+      <c r="B149" t="s">
+        <v>433</v>
+      </c>
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>434</v>
+      </c>
+      <c r="B150" t="s">
+        <v>435</v>
+      </c>
+      <c r="C150" t="s">
+        <v>321</v>
+      </c>
+      <c r="D150" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>437</v>
+      </c>
+      <c r="B151" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>439</v>
+      </c>
+      <c r="B152" t="s">
+        <v>440</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>441</v>
+      </c>
+      <c r="B153" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>444</v>
+      </c>
+      <c r="B154" t="s">
+        <v>445</v>
+      </c>
+      <c r="C154" t="s">
+        <v>310</v>
+      </c>
+      <c r="D154" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>444</v>
+      </c>
+      <c r="B155" t="s">
+        <v>445</v>
+      </c>
+      <c r="C155" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B156" t="s">
+        <v>447</v>
+      </c>
+      <c r="C156" t="s">
+        <v>310</v>
+      </c>
+      <c r="D156" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>444</v>
+      </c>
+      <c r="B157" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" t="s">
+        <v>310</v>
+      </c>
+      <c r="D157" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>450</v>
+      </c>
+      <c r="B158" t="s">
+        <v>451</v>
+      </c>
+      <c r="C158" t="s">
+        <v>310</v>
+      </c>
+      <c r="D158" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159" t="s">
+        <v>310</v>
+      </c>
+      <c r="D159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>450</v>
+      </c>
+      <c r="B160" t="s">
+        <v>453</v>
+      </c>
+      <c r="C160" t="s">
+        <v>310</v>
+      </c>
+      <c r="D160" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>450</v>
+      </c>
+      <c r="B161" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161" t="s">
+        <v>310</v>
+      </c>
+      <c r="D161" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>456</v>
+      </c>
+      <c r="B162" t="s">
+        <v>457</v>
+      </c>
+      <c r="C162" t="s">
+        <v>310</v>
+      </c>
+      <c r="D162" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>459</v>
+      </c>
+      <c r="B163" t="s">
+        <v>460</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>461</v>
+      </c>
+      <c r="B164" t="s">
+        <v>462</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" t="s">
+        <v>464</v>
+      </c>
+      <c r="C165" t="s">
+        <v>310</v>
+      </c>
+      <c r="D165" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>465</v>
+      </c>
+      <c r="B166" t="s">
+        <v>466</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>468</v>
+      </c>
+      <c r="B167" t="s">
+        <v>469</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>471</v>
+      </c>
+      <c r="B168" t="s">
+        <v>472</v>
+      </c>
+      <c r="C168" t="s">
+        <v>310</v>
+      </c>
+      <c r="D168" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>474</v>
+      </c>
+      <c r="B169" t="s">
+        <v>475</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>477</v>
+      </c>
+      <c r="B170" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>480</v>
+      </c>
+      <c r="B171" t="s">
+        <v>481</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>483</v>
+      </c>
+      <c r="B172" t="s">
+        <v>484</v>
+      </c>
+      <c r="C172" t="s">
+        <v>310</v>
+      </c>
+      <c r="D172" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>486</v>
+      </c>
+      <c r="B173" t="s">
+        <v>487</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" t="s">
+        <v>490</v>
+      </c>
+      <c r="C174" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>492</v>
+      </c>
+      <c r="B175" t="s">
+        <v>493</v>
+      </c>
+      <c r="C175" t="s">
+        <v>166</v>
+      </c>
+      <c r="D175" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>495</v>
+      </c>
+      <c r="B176" t="s">
+        <v>496</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>498</v>
+      </c>
+      <c r="B177" t="s">
+        <v>499</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178" t="s">
+        <v>502</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>504</v>
+      </c>
+      <c r="B179" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>507</v>
+      </c>
+      <c r="B180" t="s">
+        <v>508</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>510</v>
+      </c>
+      <c r="B181" t="s">
+        <v>511</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>513</v>
+      </c>
+      <c r="B182" t="s">
+        <v>514</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>516</v>
+      </c>
+      <c r="B183" t="s">
+        <v>517</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>518</v>
+      </c>
+      <c r="B184" t="s">
+        <v>519</v>
+      </c>
+      <c r="C184" t="s">
+        <v>310</v>
+      </c>
+      <c r="D184" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>518</v>
+      </c>
+      <c r="B185" t="s">
+        <v>519</v>
+      </c>
+      <c r="C185" t="s">
+        <v>310</v>
+      </c>
+      <c r="D185" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>520</v>
+      </c>
+      <c r="B186" t="s">
+        <v>521</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" t="s">
+        <v>524</v>
+      </c>
+      <c r="C187" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>526</v>
+      </c>
+      <c r="B188" t="s">
+        <v>527</v>
+      </c>
+      <c r="C188" t="s">
+        <v>136</v>
+      </c>
+      <c r="D188" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>528</v>
+      </c>
+      <c r="B189" t="s">
+        <v>529</v>
+      </c>
+      <c r="C189" t="s">
+        <v>166</v>
+      </c>
+      <c r="D189" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>530</v>
+      </c>
+      <c r="B190" t="s">
+        <v>531</v>
+      </c>
+      <c r="C190" t="s">
+        <v>166</v>
+      </c>
+      <c r="D190" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>533</v>
+      </c>
+      <c r="B191" t="s">
+        <v>534</v>
+      </c>
+      <c r="C191" t="s">
+        <v>535</v>
+      </c>
+      <c r="D191" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>537</v>
+      </c>
+      <c r="B192" t="s">
+        <v>538</v>
+      </c>
+      <c r="C192" t="s">
+        <v>136</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>539</v>
+      </c>
+      <c r="B193" t="s">
+        <v>540</v>
+      </c>
+      <c r="C193" t="s">
+        <v>136</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>541</v>
+      </c>
+      <c r="B194" t="s">
+        <v>542</v>
+      </c>
+      <c r="C194" t="s">
+        <v>136</v>
+      </c>
+      <c r="D194" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>544</v>
+      </c>
+      <c r="B195" t="s">
+        <v>545</v>
+      </c>
+      <c r="C195" t="s">
+        <v>136</v>
+      </c>
+      <c r="D195" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>547</v>
+      </c>
+      <c r="B196" t="s">
+        <v>548</v>
+      </c>
+      <c r="C196" t="s">
+        <v>136</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>549</v>
+      </c>
+      <c r="B197" t="s">
+        <v>550</v>
+      </c>
+      <c r="C197" t="s">
+        <v>136</v>
+      </c>
+      <c r="D197" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>551</v>
+      </c>
+      <c r="B198" t="s">
+        <v>552</v>
+      </c>
+      <c r="C198" t="s">
+        <v>136</v>
+      </c>
+      <c r="D198" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>553</v>
+      </c>
+      <c r="B199" t="s">
+        <v>554</v>
+      </c>
+      <c r="C199" t="s">
+        <v>310</v>
+      </c>
+      <c r="D199" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>555</v>
+      </c>
+      <c r="B200" t="s">
+        <v>556</v>
+      </c>
+      <c r="C200" t="s">
+        <v>310</v>
+      </c>
+      <c r="D200" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>558</v>
+      </c>
+      <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+      <c r="D201" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>560</v>
+      </c>
+      <c r="B202" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>563</v>
+      </c>
+      <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
+        <v>136</v>
+      </c>
+      <c r="D203" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>566</v>
+      </c>
+      <c r="B204" t="s">
+        <v>567</v>
+      </c>
+      <c r="C204" t="s">
+        <v>166</v>
+      </c>
+      <c r="D204" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>569</v>
+      </c>
+      <c r="B205" t="s">
+        <v>570</v>
+      </c>
+      <c r="C205" t="s">
+        <v>310</v>
+      </c>
+      <c r="D205" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>572</v>
+      </c>
+      <c r="B206" t="s">
+        <v>573</v>
+      </c>
+      <c r="C206" t="s">
+        <v>321</v>
+      </c>
+      <c r="D206" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>572</v>
+      </c>
+      <c r="B207" t="s">
+        <v>575</v>
+      </c>
+      <c r="C207" t="s">
+        <v>321</v>
+      </c>
+      <c r="D207" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>577</v>
+      </c>
+      <c r="B208" t="s">
+        <v>578</v>
+      </c>
+      <c r="C208" t="s">
+        <v>321</v>
+      </c>
+      <c r="D208" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>580</v>
+      </c>
+      <c r="B209" t="s">
+        <v>581</v>
+      </c>
+      <c r="C209" t="s">
+        <v>321</v>
+      </c>
+      <c r="D209" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>580</v>
+      </c>
+      <c r="B210" t="s">
+        <v>583</v>
+      </c>
+      <c r="C210" t="s">
+        <v>321</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>580</v>
+      </c>
+      <c r="B211" t="s">
+        <v>584</v>
+      </c>
+      <c r="C211" t="s">
+        <v>321</v>
+      </c>
+      <c r="D211" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>585</v>
+      </c>
+      <c r="B212" t="s">
+        <v>586</v>
+      </c>
+      <c r="C212" t="s">
+        <v>321</v>
+      </c>
+      <c r="D212" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>587</v>
+      </c>
+      <c r="B213" t="s">
+        <v>588</v>
+      </c>
+      <c r="C213" t="s">
+        <v>321</v>
+      </c>
+      <c r="D213" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>590</v>
+      </c>
+      <c r="B214" t="s">
+        <v>591</v>
+      </c>
+      <c r="C214" t="s">
+        <v>321</v>
+      </c>
+      <c r="D214" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>593</v>
+      </c>
+      <c r="B215" t="s">
+        <v>594</v>
+      </c>
+      <c r="C215" t="s">
+        <v>321</v>
+      </c>
+      <c r="D215" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>596</v>
+      </c>
+      <c r="B216" t="s">
+        <v>597</v>
+      </c>
+      <c r="C216" t="s">
+        <v>321</v>
+      </c>
+      <c r="D216" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>599</v>
+      </c>
+      <c r="B217" t="s">
+        <v>600</v>
+      </c>
+      <c r="C217" t="s">
+        <v>321</v>
+      </c>
+      <c r="D217" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>602</v>
+      </c>
+      <c r="B218" t="s">
+        <v>603</v>
+      </c>
+      <c r="C218" t="s">
+        <v>321</v>
+      </c>
+      <c r="D218" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>605</v>
+      </c>
+      <c r="B219" t="s">
+        <v>606</v>
+      </c>
+      <c r="C219" t="s">
+        <v>321</v>
+      </c>
+      <c r="D219" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>608</v>
+      </c>
+      <c r="B220" t="s">
+        <v>609</v>
+      </c>
+      <c r="C220" t="s">
+        <v>321</v>
+      </c>
+      <c r="D220" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>611</v>
+      </c>
+      <c r="B221" t="s">
+        <v>612</v>
+      </c>
+      <c r="C221" t="s">
+        <v>321</v>
+      </c>
+      <c r="D221" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>611</v>
+      </c>
+      <c r="B222" t="s">
+        <v>614</v>
+      </c>
+      <c r="C222" t="s">
+        <v>321</v>
+      </c>
+      <c r="D222" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>611</v>
+      </c>
+      <c r="B223" t="s">
+        <v>615</v>
+      </c>
+      <c r="C223" t="s">
+        <v>321</v>
+      </c>
+      <c r="D223" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>617</v>
+      </c>
+      <c r="B224" t="s">
+        <v>618</v>
+      </c>
+      <c r="C224" t="s">
+        <v>136</v>
+      </c>
+      <c r="D224" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>619</v>
+      </c>
+      <c r="B225" t="s">
+        <v>620</v>
+      </c>
+      <c r="C225" t="s">
+        <v>166</v>
+      </c>
+      <c r="D225" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>622</v>
+      </c>
+      <c r="B226" t="s">
+        <v>623</v>
+      </c>
+      <c r="C226" t="s">
+        <v>166</v>
+      </c>
+      <c r="D226" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>624</v>
+      </c>
+      <c r="B227" t="s">
+        <v>625</v>
+      </c>
+      <c r="C227" t="s">
+        <v>166</v>
+      </c>
+      <c r="D227" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>627</v>
+      </c>
+      <c r="B228" t="s">
+        <v>628</v>
+      </c>
+      <c r="C228" t="s">
+        <v>166</v>
+      </c>
+      <c r="D228" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>630</v>
+      </c>
+      <c r="B229" t="s">
+        <v>631</v>
+      </c>
+      <c r="C229" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>630</v>
+      </c>
+      <c r="B230" t="s">
+        <v>632</v>
+      </c>
+      <c r="C230" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>634</v>
+      </c>
+      <c r="B231" t="s">
+        <v>635</v>
+      </c>
+      <c r="C231" t="s">
+        <v>310</v>
+      </c>
+      <c r="D231" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>636</v>
+      </c>
+      <c r="B232" t="s">
+        <v>637</v>
+      </c>
+      <c r="C232" t="s">
+        <v>310</v>
+      </c>
+      <c r="D232" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>638</v>
+      </c>
+      <c r="B233" t="s">
+        <v>639</v>
+      </c>
+      <c r="C233" t="s">
+        <v>310</v>
+      </c>
+      <c r="D233" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>640</v>
+      </c>
+      <c r="B234" t="s">
+        <v>641</v>
+      </c>
+      <c r="C234" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>643</v>
+      </c>
+      <c r="B235" t="s">
+        <v>644</v>
+      </c>
+      <c r="C235" t="s">
+        <v>310</v>
+      </c>
+      <c r="D235" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>645</v>
+      </c>
+      <c r="B236" t="s">
+        <v>646</v>
+      </c>
+      <c r="C236" t="s">
+        <v>310</v>
+      </c>
+      <c r="D236" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>645</v>
+      </c>
+      <c r="B237" t="s">
+        <v>647</v>
+      </c>
+      <c r="C237" t="s">
+        <v>310</v>
+      </c>
+      <c r="D237" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>649</v>
+      </c>
+      <c r="B238" t="s">
+        <v>650</v>
+      </c>
+      <c r="C238" t="s">
+        <v>136</v>
+      </c>
+      <c r="D238" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>652</v>
+      </c>
+      <c r="B239" t="s">
+        <v>653</v>
+      </c>
+      <c r="C239" t="s">
+        <v>310</v>
+      </c>
+      <c r="D239" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>654</v>
+      </c>
+      <c r="B240" t="s">
+        <v>655</v>
+      </c>
+      <c r="C240" t="s">
+        <v>310</v>
+      </c>
+      <c r="D240" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
